--- a/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
+++ b/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
@@ -303,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -334,21 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,8 +348,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,92 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,55 +492,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,127 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,73 +803,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -878,58 +878,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2027,7 +2027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2036,6 +2036,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
+++ b/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
@@ -205,7 +205,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001_登录</t>
+    <t>hc_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -217,7 +217,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>cnj_st_002_我的待办进入</t>
+    <t>hc_st_002_我的待办进入</t>
   </si>
   <si>
     <t>海口政务系统-我的待办进入</t>
@@ -229,7 +229,7 @@
     <t>进入我的待办操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003_待办事项查询</t>
+    <t>hc_st_003_待办事项查询</t>
   </si>
   <si>
     <t>我的待办-查询待办事项</t>
@@ -241,7 +241,7 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>cnj_st_004_办理审核提交</t>
+    <t>hc_st_004_办理审核提交</t>
   </si>
   <si>
     <t>待办办理信息验证</t>
@@ -333,8 +333,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +385,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -356,28 +409,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -385,13 +424,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -399,17 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +455,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,44 +476,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -492,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +683,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,9 +721,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,32 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
+++ b/run_entrance/test_suite/test_suite_hc04补齐补正审核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>模块</t>
   </si>
@@ -163,7 +163,13 @@
     <t>办理-确定</t>
   </si>
   <si>
-    <t>//button[contains(text(),'确定')]</t>
+    <t>document_get</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>('btn btn_minwidth btn-primary js-submit')[0]</t>
   </si>
   <si>
     <t>办理-提交结果检查</t>
@@ -305,8 +311,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -331,6 +337,65 @@
       <color rgb="FF3296FA"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -341,6 +406,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -349,81 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -433,21 +446,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -462,8 +460,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,6 +475,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -492,13 +498,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,169 +600,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +689,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -721,11 +738,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,21 +776,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -774,15 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,10 +1339,10 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:E14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1618,18 +1624,18 @@
         <v>47</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:5">
       <c r="B19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
@@ -1638,12 +1644,12 @@
         <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:5">
       <c r="B20" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>24</v>
@@ -1652,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -1697,12 +1703,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1734,82 +1740,82 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1829,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1839,33 +1845,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1874,14 +1880,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1897,7 +1903,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -1925,7 +1931,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1935,13 +1941,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -1979,12 +1985,12 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1993,7 +1999,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -2015,7 +2021,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -2024,12 +2030,12 @@
         <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -2043,7 +2049,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -2063,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:4">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
@@ -2092,12 +2098,12 @@
         <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
@@ -2108,27 +2114,27 @@
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="3:5">
@@ -2140,7 +2146,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
